--- a/Qi/Project/GS-1/code/output/Q1_predict.xlsx
+++ b/Qi/Project/GS-1/code/output/Q1_predict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MathCompete\MathStudyNote\Qi\Project\GS-1\code\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F8A62-A3F4-4193-8FD7-AA7C6815AD94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987E41F-4675-44D7-9EE5-308FCA7044F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,384 +20,403 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>E109</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>E111</t>
+  </si>
+  <si>
+    <t>E112</t>
+  </si>
+  <si>
+    <t>E113</t>
+  </si>
+  <si>
+    <t>E114</t>
+  </si>
+  <si>
+    <t>E115</t>
+  </si>
+  <si>
+    <t>E116</t>
+  </si>
+  <si>
+    <t>E117</t>
+  </si>
+  <si>
+    <t>E118</t>
+  </si>
+  <si>
+    <t>E119</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E120</t>
+  </si>
+  <si>
+    <t>E121</t>
+  </si>
+  <si>
+    <t>E122</t>
+  </si>
+  <si>
+    <t>E123</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
+    <t>E35</t>
+  </si>
+  <si>
+    <t>E36</t>
+  </si>
+  <si>
+    <t>E37</t>
+  </si>
+  <si>
+    <t>E38</t>
+  </si>
+  <si>
+    <t>E39</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E40</t>
+  </si>
+  <si>
+    <t>E41</t>
+  </si>
+  <si>
+    <t>E42</t>
+  </si>
+  <si>
+    <t>E43</t>
+  </si>
+  <si>
+    <t>E44</t>
+  </si>
+  <si>
+    <t>E45</t>
+  </si>
+  <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>E47</t>
+  </si>
+  <si>
+    <t>E48</t>
+  </si>
+  <si>
+    <t>E49</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>E51</t>
+  </si>
+  <si>
+    <t>E52</t>
+  </si>
+  <si>
+    <t>E53</t>
+  </si>
+  <si>
+    <t>E54</t>
+  </si>
+  <si>
+    <t>E55</t>
+  </si>
+  <si>
+    <t>E56</t>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>E58</t>
+  </si>
+  <si>
+    <t>E59</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E60</t>
+  </si>
+  <si>
+    <t>E61</t>
+  </si>
+  <si>
+    <t>E62</t>
+  </si>
+  <si>
+    <t>E63</t>
+  </si>
+  <si>
+    <t>E64</t>
+  </si>
+  <si>
+    <t>E65</t>
+  </si>
+  <si>
+    <t>E66</t>
+  </si>
+  <si>
+    <t>E67</t>
+  </si>
+  <si>
+    <t>E68</t>
+  </si>
+  <si>
+    <t>E69</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E70</t>
+  </si>
+  <si>
+    <t>E71</t>
+  </si>
+  <si>
+    <t>E72</t>
+  </si>
+  <si>
+    <t>E73</t>
+  </si>
+  <si>
+    <t>E74</t>
+  </si>
+  <si>
+    <t>E75</t>
+  </si>
+  <si>
+    <t>E76</t>
+  </si>
+  <si>
+    <t>E77</t>
+  </si>
+  <si>
+    <t>E78</t>
+  </si>
+  <si>
+    <t>E79</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E80</t>
+  </si>
+  <si>
+    <t>E81</t>
+  </si>
+  <si>
+    <t>E82</t>
+  </si>
+  <si>
+    <t>E83</t>
+  </si>
+  <si>
+    <t>E84</t>
+  </si>
+  <si>
+    <t>E85</t>
+  </si>
+  <si>
+    <t>E86</t>
+  </si>
+  <si>
+    <t>E87</t>
+  </si>
+  <si>
+    <t>E88</t>
+  </si>
+  <si>
+    <t>E89</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E90</t>
+  </si>
+  <si>
+    <t>E91</t>
+  </si>
+  <si>
+    <t>E92</t>
+  </si>
+  <si>
+    <t>E93</t>
+  </si>
+  <si>
+    <t>E94</t>
+  </si>
+  <si>
+    <t>E95</t>
+  </si>
+  <si>
+    <t>E96</t>
+  </si>
+  <si>
+    <t>E97</t>
+  </si>
+  <si>
+    <t>E98</t>
+  </si>
+  <si>
+    <t>E99</t>
+  </si>
+  <si>
+    <t>pred_possibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pred_labels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>pred_possibility</t>
-  </si>
-  <si>
-    <t>pred_labels</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E100</t>
-  </si>
-  <si>
-    <t>E101</t>
-  </si>
-  <si>
-    <t>E102</t>
-  </si>
-  <si>
-    <t>E103</t>
-  </si>
-  <si>
-    <t>E104</t>
-  </si>
-  <si>
-    <t>E105</t>
-  </si>
-  <si>
-    <t>E106</t>
-  </si>
-  <si>
-    <t>E107</t>
-  </si>
-  <si>
-    <t>E108</t>
-  </si>
-  <si>
-    <t>E109</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E110</t>
-  </si>
-  <si>
-    <t>E111</t>
-  </si>
-  <si>
-    <t>E112</t>
-  </si>
-  <si>
-    <t>E113</t>
-  </si>
-  <si>
-    <t>E114</t>
-  </si>
-  <si>
-    <t>E115</t>
-  </si>
-  <si>
-    <t>E116</t>
-  </si>
-  <si>
-    <t>E117</t>
-  </si>
-  <si>
-    <t>E118</t>
-  </si>
-  <si>
-    <t>E119</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E120</t>
-  </si>
-  <si>
-    <t>E121</t>
-  </si>
-  <si>
-    <t>E122</t>
-  </si>
-  <si>
-    <t>E123</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>E24</t>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E26</t>
-  </si>
-  <si>
-    <t>E27</t>
-  </si>
-  <si>
-    <t>E28</t>
-  </si>
-  <si>
-    <t>E29</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>E31</t>
-  </si>
-  <si>
-    <t>E32</t>
-  </si>
-  <si>
-    <t>E33</t>
-  </si>
-  <si>
-    <t>E34</t>
-  </si>
-  <si>
-    <t>E35</t>
-  </si>
-  <si>
-    <t>E36</t>
-  </si>
-  <si>
-    <t>E37</t>
-  </si>
-  <si>
-    <t>E38</t>
-  </si>
-  <si>
-    <t>E39</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E40</t>
-  </si>
-  <si>
-    <t>E41</t>
-  </si>
-  <si>
-    <t>E42</t>
-  </si>
-  <si>
-    <t>E43</t>
-  </si>
-  <si>
-    <t>E44</t>
-  </si>
-  <si>
-    <t>E45</t>
-  </si>
-  <si>
-    <t>E46</t>
-  </si>
-  <si>
-    <t>E47</t>
-  </si>
-  <si>
-    <t>E48</t>
-  </si>
-  <si>
-    <t>E49</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E50</t>
-  </si>
-  <si>
-    <t>E51</t>
-  </si>
-  <si>
-    <t>E52</t>
-  </si>
-  <si>
-    <t>E53</t>
-  </si>
-  <si>
-    <t>E54</t>
-  </si>
-  <si>
-    <t>E55</t>
-  </si>
-  <si>
-    <t>E56</t>
-  </si>
-  <si>
-    <t>E57</t>
-  </si>
-  <si>
-    <t>E58</t>
-  </si>
-  <si>
-    <t>E59</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E60</t>
-  </si>
-  <si>
-    <t>E61</t>
-  </si>
-  <si>
-    <t>E62</t>
-  </si>
-  <si>
-    <t>E63</t>
-  </si>
-  <si>
-    <t>E64</t>
-  </si>
-  <si>
-    <t>E65</t>
-  </si>
-  <si>
-    <t>E66</t>
-  </si>
-  <si>
-    <t>E67</t>
-  </si>
-  <si>
-    <t>E68</t>
-  </si>
-  <si>
-    <t>E69</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E70</t>
-  </si>
-  <si>
-    <t>E71</t>
-  </si>
-  <si>
-    <t>E72</t>
-  </si>
-  <si>
-    <t>E73</t>
-  </si>
-  <si>
-    <t>E74</t>
-  </si>
-  <si>
-    <t>E75</t>
-  </si>
-  <si>
-    <t>E76</t>
-  </si>
-  <si>
-    <t>E77</t>
-  </si>
-  <si>
-    <t>E78</t>
-  </si>
-  <si>
-    <t>E79</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E80</t>
-  </si>
-  <si>
-    <t>E81</t>
-  </si>
-  <si>
-    <t>E82</t>
-  </si>
-  <si>
-    <t>E83</t>
-  </si>
-  <si>
-    <t>E84</t>
-  </si>
-  <si>
-    <t>E85</t>
-  </si>
-  <si>
-    <t>E86</t>
-  </si>
-  <si>
-    <t>E87</t>
-  </si>
-  <si>
-    <t>E88</t>
-  </si>
-  <si>
-    <t>E89</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E90</t>
-  </si>
-  <si>
-    <t>E91</t>
-  </si>
-  <si>
-    <t>E92</t>
-  </si>
-  <si>
-    <t>E93</t>
-  </si>
-  <si>
-    <t>E94</t>
-  </si>
-  <si>
-    <t>E95</t>
-  </si>
-  <si>
-    <t>E96</t>
-  </si>
-  <si>
-    <t>E97</t>
-  </si>
-  <si>
-    <t>E98</t>
-  </si>
-  <si>
-    <t>E99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -769,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -781,25 +800,29 @@
     <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2.305703051388264E-2</v>
@@ -807,13 +830,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>3.1757362186908722E-2</v>
@@ -821,13 +847,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0.93005305528640747</v>
@@ -835,8 +864,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -849,8 +881,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,8 +898,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -877,8 +915,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -891,13 +932,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0.22839201986789701</v>
@@ -905,13 +949,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0.19835114479064939</v>
@@ -919,13 +966,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0.93005305528640747</v>
@@ -933,13 +983,16 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0.93201172351837158</v>
@@ -947,13 +1000,16 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0.93201172351837158</v>
@@ -961,13 +1017,16 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>6.5943069756031036E-2</v>
@@ -975,13 +1034,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0.35525903105735779</v>
@@ -989,13 +1051,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0.93619871139526367</v>
@@ -1003,13 +1068,16 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0.91665279865264893</v>
@@ -1017,13 +1085,16 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>0.91503489017486572</v>
@@ -1031,13 +1102,16 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>0.93201172351837158</v>
@@ -1045,13 +1119,16 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>0.93201172351837158</v>
@@ -1059,13 +1136,16 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0.93201172351837158</v>
@@ -1073,13 +1153,16 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>0.93201172351837158</v>
@@ -1087,13 +1170,16 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>0.93201172351837158</v>
@@ -1101,13 +1187,16 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>0.93201172351837158</v>
@@ -1115,13 +1204,16 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>3.164953738451004E-2</v>
@@ -1129,13 +1221,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>0.93201172351837158</v>
@@ -1143,13 +1238,16 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>0.92390263080596924</v>
@@ -1157,13 +1255,16 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>0.93201172351837158</v>
@@ -1171,13 +1272,16 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>0.93201172351837158</v>
@@ -1185,13 +1289,16 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>3.164953738451004E-2</v>
@@ -1199,13 +1306,16 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>6.5943069756031036E-2</v>
@@ -1213,13 +1323,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>3.1757362186908722E-2</v>
@@ -1227,13 +1340,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>9.2425629496574402E-2</v>
@@ -1241,13 +1357,16 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>3.164953738451004E-2</v>
@@ -1255,13 +1374,16 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>3.2839863561093812E-3</v>
@@ -1269,13 +1391,16 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>2.305703051388264E-2</v>
@@ -1283,13 +1408,16 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>3.164953738451004E-2</v>
@@ -1297,13 +1425,16 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>3.164953738451004E-2</v>
@@ -1311,13 +1442,16 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>2.981140278279781E-2</v>
@@ -1325,13 +1459,16 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>3.164953738451004E-2</v>
@@ -1339,13 +1476,16 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>3.164953738451004E-2</v>
@@ -1353,13 +1493,16 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>3.164953738451004E-2</v>
@@ -1367,13 +1510,16 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>6.9214776158332825E-2</v>
@@ -1381,13 +1527,16 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>3.3215954899787903E-2</v>
@@ -1395,13 +1544,16 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>2.305703051388264E-2</v>
@@ -1409,13 +1561,16 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>7.7365770936012268E-2</v>
@@ -1423,13 +1578,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>0.18757754564285281</v>
@@ -1437,13 +1595,16 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>6.5943069756031036E-2</v>
@@ -1451,13 +1612,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>3.2192844897508621E-2</v>
@@ -1465,13 +1629,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>3.1757362186908722E-2</v>
@@ -1479,13 +1646,16 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>3.3280421048402793E-2</v>
@@ -1493,13 +1663,16 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>0.1383775323629379</v>
@@ -1507,13 +1680,16 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>3.164953738451004E-2</v>
@@ -1521,13 +1697,16 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>3.1121519859880209E-3</v>
@@ -1535,13 +1714,16 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>0.63314825296401978</v>
@@ -1549,13 +1731,16 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>2.305703051388264E-2</v>
@@ -1563,13 +1748,16 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>3.1757362186908722E-2</v>
@@ -1577,13 +1765,16 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>0.18757754564285281</v>
@@ -1591,13 +1782,16 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>6.5943069756031036E-2</v>
@@ -1605,13 +1799,16 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>6.9214776158332825E-2</v>
@@ -1619,13 +1816,16 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>6.4046040177345276E-2</v>
@@ -1633,13 +1833,16 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>1.026653777807951E-2</v>
@@ -1647,13 +1850,16 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>3.3701620995998383E-2</v>
@@ -1661,13 +1867,16 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>6.0595329850912087E-2</v>
@@ -1675,13 +1884,16 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>0.26259034872055048</v>
@@ -1689,13 +1901,16 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>6.2037620693445213E-2</v>
@@ -1703,13 +1918,16 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>6.5943069756031036E-2</v>
@@ -1717,13 +1935,16 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>3.1757362186908722E-2</v>
@@ -1731,13 +1952,16 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>7.012670487165451E-2</v>
@@ -1745,13 +1969,16 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>3.0564954504370689E-2</v>
@@ -1759,13 +1986,16 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>8.2575976848602295E-2</v>
@@ -1773,13 +2003,16 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>3.1908951699733727E-2</v>
@@ -1787,13 +2020,16 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>0.79729980230331421</v>
@@ -1801,13 +2037,16 @@
       <c r="D73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>6.6463961265981197E-3</v>
@@ -1815,13 +2054,16 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>3.2708469778299332E-2</v>
@@ -1829,13 +2071,16 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>6.8698935210704803E-2</v>
@@ -1843,13 +2088,16 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>4.6107135713100433E-2</v>
@@ -1857,13 +2105,16 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>3.030019253492355E-2</v>
@@ -1871,13 +2122,16 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>3.3022906631231308E-2</v>
@@ -1885,13 +2139,16 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>3.2719366252422333E-2</v>
@@ -1899,13 +2156,16 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>3.164953738451004E-2</v>
@@ -1913,13 +2173,16 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>3.0417819507420059E-3</v>
@@ -1927,13 +2190,16 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>8.4729991853237152E-2</v>
@@ -1941,13 +2207,16 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>7.913845032453537E-2</v>
@@ -1955,13 +2224,16 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>3.3167604357004173E-2</v>
@@ -1969,13 +2241,16 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>1.0078848339617251E-2</v>
@@ -1983,13 +2258,16 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>7.4991662986576557E-3</v>
@@ -1997,13 +2275,16 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>2.3361228406429291E-2</v>
@@ -2011,13 +2292,16 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>8.3778463304042816E-3</v>
@@ -2025,13 +2309,16 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>2.2233443334698681E-2</v>
@@ -2039,13 +2326,16 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>2.6257019490003589E-2</v>
@@ -2053,13 +2343,16 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>3.164953738451004E-2</v>
@@ -2067,13 +2360,16 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>3.0789511278271679E-2</v>
@@ -2081,13 +2377,16 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>9.3261413276195526E-3</v>
@@ -2095,13 +2394,16 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>1.6663298010826111E-2</v>
@@ -2109,13 +2411,16 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>0.1788510978221893</v>
@@ -2123,13 +2428,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>9.5357801765203476E-3</v>
@@ -2137,13 +2445,16 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>6.5472624264657497E-3</v>
@@ -2151,13 +2462,16 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>1.391222048550844E-2</v>
@@ -2165,13 +2479,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>9.5070861279964447E-2</v>
@@ -2179,13 +2496,16 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>1.7863590270280841E-2</v>
@@ -2193,13 +2513,16 @@
       <c r="D101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>3.5059209913015373E-2</v>
@@ -2207,13 +2530,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>3.164953738451004E-2</v>
@@ -2221,13 +2547,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>2.683925069868565E-2</v>
@@ -2235,13 +2564,16 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>2.117198146879673E-2</v>
@@ -2249,13 +2581,16 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>0.95616698265075684</v>
@@ -2263,13 +2598,16 @@
       <c r="D106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>3.4179225564002991E-2</v>
@@ -2277,13 +2615,16 @@
       <c r="D107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>6.9127209484577179E-2</v>
@@ -2291,13 +2632,16 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>4.1919883340597153E-2</v>
@@ -2305,13 +2649,16 @@
       <c r="D109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>8.7288536131381989E-2</v>
@@ -2319,13 +2666,16 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>0.43264108896255488</v>
@@ -2333,13 +2683,16 @@
       <c r="D111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>4.1301574558019638E-2</v>
@@ -2347,13 +2700,16 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>4.1247144341468811E-2</v>
@@ -2361,13 +2717,16 @@
       <c r="D113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>3.164953738451004E-2</v>
@@ -2375,13 +2734,16 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>3.8874231278896332E-2</v>
@@ -2389,13 +2751,16 @@
       <c r="D115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>5.2615612745285027E-2</v>
@@ -2403,13 +2768,16 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>8.7670892477035522E-2</v>
@@ -2417,13 +2785,16 @@
       <c r="D117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>5.180780217051506E-2</v>
@@ -2431,13 +2802,16 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>0.12940917909145361</v>
@@ -2445,13 +2819,16 @@
       <c r="D119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>4.1449982672929757E-2</v>
@@ -2459,13 +2836,16 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>6.425253301858902E-2</v>
@@ -2473,13 +2853,16 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>9.1046832501888275E-2</v>
@@ -2487,13 +2870,16 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>4.9817737191915512E-2</v>
@@ -2501,19 +2887,25 @@
       <c r="D123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>0.67981117963790894</v>
       </c>
       <c r="D124">
         <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
